--- a/data/trans_dic/P74B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06376767995497894</v>
+        <v>0.05907043884455233</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1199722611989992</v>
+        <v>0.1202156398827302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08298107282667014</v>
+        <v>0.08236712346239092</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7844519770234668</v>
+        <v>0.7840607730708534</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5331703404080052</v>
+        <v>0.5227760157032497</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6033338473993541</v>
+        <v>0.5991011101609631</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.280907559318449</v>
+        <v>0.286689166757961</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2935923777387197</v>
+        <v>0.2888987430294198</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3053978448097519</v>
+        <v>0.299942147826658</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1256181203002798</v>
+        <v>0.118781345168755</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2060356841712363</v>
+        <v>0.208909601319225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1509853405285751</v>
+        <v>0.157613149848261</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9035155623371492</v>
+        <v>0.9038683715855123</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6763609206737841</v>
+        <v>0.6740348608990462</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7274506555426973</v>
+        <v>0.7308472049914676</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.364053885385449</v>
+        <v>0.3659068594590773</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3779948390955</v>
+        <v>0.3805915310587119</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.390085517950565</v>
+        <v>0.3892369277389126</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06022417756374198</v>
+        <v>0.05826636083385391</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0934554925251458</v>
+        <v>0.09319729419712033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1020668991983787</v>
+        <v>0.1022266978266671</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7943595163520181</v>
+        <v>0.7925725253592637</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5928362493352549</v>
+        <v>0.5973291917406518</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5837068783319088</v>
+        <v>0.5828240326656764</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2609263272183791</v>
+        <v>0.2624954924853911</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2977395719808312</v>
+        <v>0.3018141516221631</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3084945812817504</v>
+        <v>0.3048537762890653</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1143957045868276</v>
+        <v>0.1128564862420255</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1645386924812127</v>
+        <v>0.1643877806419803</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1710894532009831</v>
+        <v>0.1720278845094778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9107436498744066</v>
+        <v>0.9088706096689598</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7124167566258695</v>
+        <v>0.7166341686889693</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6975369430742445</v>
+        <v>0.6980003247104019</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3359313605594806</v>
+        <v>0.3406156064272881</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3775997858626479</v>
+        <v>0.3772869475603766</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3810393387769132</v>
+        <v>0.3844019601263661</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02910248447860353</v>
+        <v>0.02863855940829659</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07217133335428969</v>
+        <v>0.07158376082241713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05254640328890028</v>
+        <v>0.05097623387881384</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7115919347814179</v>
+        <v>0.7214540189285944</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6105311166145504</v>
+        <v>0.6150018569329825</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5579516074008646</v>
+        <v>0.5582975040456831</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2142252112460071</v>
+        <v>0.2176356751189567</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2913571617567757</v>
+        <v>0.2938449831911698</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2483306122084684</v>
+        <v>0.2484798371138144</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08033557188757923</v>
+        <v>0.08067552362184935</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1510797471983086</v>
+        <v>0.1559328219065966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1128506764219257</v>
+        <v>0.1111904161544875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8576644956320456</v>
+        <v>0.8599435811554946</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7507636005188399</v>
+        <v>0.7437630526594804</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6943665782073897</v>
+        <v>0.7042191227720129</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2986345479304006</v>
+        <v>0.2976305854736164</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3834521499510699</v>
+        <v>0.3843796186653127</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3320075061845883</v>
+        <v>0.334776604674349</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05527352883057719</v>
+        <v>0.05409230750175052</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08254964452915874</v>
+        <v>0.08342146389919104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1279609820539589</v>
+        <v>0.1289343199823183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7375622065236376</v>
+        <v>0.7391283433762862</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7098877683320673</v>
+        <v>0.707902097776213</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6379300999389493</v>
+        <v>0.6487674330024975</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2889682561460848</v>
+        <v>0.2897570834782003</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3360545623143179</v>
+        <v>0.3404784382275865</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3287626469449689</v>
+        <v>0.327441603279198</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1076698636983753</v>
+        <v>0.1141924491442735</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1523640480211136</v>
+        <v>0.1541359911918459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2032663490533466</v>
+        <v>0.2012513158326575</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8576931381636856</v>
+        <v>0.8612572884153763</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8179994451916266</v>
+        <v>0.8185117703822687</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7702304497198266</v>
+        <v>0.7649388306433506</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3692586070057059</v>
+        <v>0.3730984056502727</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.418013593796747</v>
+        <v>0.4205235768596509</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4085906594558604</v>
+        <v>0.4078937777588497</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0615872000441982</v>
+        <v>0.06277946939149749</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1068585417763562</v>
+        <v>0.1067740754186132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1066559123807741</v>
+        <v>0.107128787411487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6438810803029139</v>
+        <v>0.6483557346222826</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6263506872068259</v>
+        <v>0.6306628538798604</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2837570956335702</v>
+        <v>0.2807654680396047</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3251112399089577</v>
+        <v>0.3282016809123373</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3187584847664577</v>
+        <v>0.3166847251738127</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08936730502494225</v>
+        <v>0.09100981288077629</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1462203184004502</v>
+        <v>0.1451453997702109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1429080253099005</v>
+        <v>0.1423982180745963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7098494970935557</v>
+        <v>0.7124904327172231</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.693948504842934</v>
+        <v>0.6925074930843803</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3247063214644998</v>
+        <v>0.3232721470278784</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3667554435963214</v>
+        <v>0.3682892510355006</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.359091839875714</v>
+        <v>0.3584711424427872</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20734</v>
+        <v>19206</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36075</v>
+        <v>36148</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23656</v>
+        <v>23481</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>113836</v>
+        <v>113779</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>103192</v>
+        <v>101180</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>122397</v>
+        <v>121538</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>132100</v>
+        <v>134818</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>145106</v>
+        <v>142786</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>149018</v>
+        <v>146356</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40844</v>
+        <v>38621</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61954</v>
+        <v>62818</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43043</v>
+        <v>44932</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>131114</v>
+        <v>131165</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>130906</v>
+        <v>130455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>147576</v>
+        <v>148265</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>171200</v>
+        <v>172071</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>186821</v>
+        <v>188104</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>190341</v>
+        <v>189927</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>26090</v>
+        <v>25242</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>38834</v>
+        <v>38727</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>40343</v>
+        <v>40406</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>131818</v>
+        <v>131522</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>165054</v>
+        <v>166305</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>163549</v>
+        <v>163302</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>156337</v>
+        <v>157278</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>206616</v>
+        <v>209443</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>208372</v>
+        <v>205913</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49559</v>
+        <v>48892</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>68371</v>
+        <v>68309</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>67624</v>
+        <v>67995</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>151132</v>
+        <v>150821</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>198347</v>
+        <v>199521</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>195444</v>
+        <v>195573</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>201278</v>
+        <v>204084</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>262035</v>
+        <v>261818</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>257373</v>
+        <v>259644</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9198</v>
+        <v>9051</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21316</v>
+        <v>21142</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16728</v>
+        <v>16228</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>86609</v>
+        <v>87809</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>118405</v>
+        <v>119272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>110112</v>
+        <v>110180</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>93781</v>
+        <v>95273</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>142557</v>
+        <v>143774</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>128063</v>
+        <v>128140</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25390</v>
+        <v>25498</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>44621</v>
+        <v>46054</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35926</v>
+        <v>35397</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>104387</v>
+        <v>104665</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>145602</v>
+        <v>144244</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>137033</v>
+        <v>138978</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>130732</v>
+        <v>130293</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>187618</v>
+        <v>188072</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>171215</v>
+        <v>172643</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18853</v>
+        <v>18450</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30029</v>
+        <v>30346</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45958</v>
+        <v>46307</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>132251</v>
+        <v>132532</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>179456</v>
+        <v>178954</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>137786</v>
+        <v>140127</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>150379</v>
+        <v>150789</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>207200</v>
+        <v>209927</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>189085</v>
+        <v>188325</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36725</v>
+        <v>38950</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>55425</v>
+        <v>56070</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>73004</v>
+        <v>72280</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>153791</v>
+        <v>154430</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>206786</v>
+        <v>206916</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>166361</v>
+        <v>165218</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>192162</v>
+        <v>194160</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>257733</v>
+        <v>259281</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>234998</v>
+        <v>234597</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87177</v>
+        <v>88865</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>146968</v>
+        <v>146852</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>144822</v>
+        <v>145464</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>591528</v>
+        <v>595639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>561459</v>
+        <v>565324</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>575342</v>
+        <v>569277</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>745818</v>
+        <v>752908</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>718557</v>
+        <v>713882</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>126500</v>
+        <v>128825</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>201104</v>
+        <v>199626</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>194046</v>
+        <v>193354</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>652132</v>
+        <v>654559</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>622053</v>
+        <v>620762</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>658371</v>
+        <v>655463</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>841352</v>
+        <v>844870</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>809478</v>
+        <v>808079</v>
       </c>
     </row>
     <row r="24">
